--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2332.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2332.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.905675442124054</v>
+        <v>0.9653424024581909</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.047032952308655</v>
       </c>
       <c r="C1">
-        <v>2.15647357017494</v>
+        <v>0.8838189244270325</v>
       </c>
       <c r="D1">
-        <v>0.798101553620758</v>
+        <v>0.9217614531517029</v>
       </c>
       <c r="E1">
-        <v>0.5381403911608024</v>
+        <v>1.074640989303589</v>
       </c>
     </row>
   </sheetData>
